--- a/data.xlsx
+++ b/data.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3,01505/13</t>
+          <t>3,18005/18</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -510,7 +510,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1,04305/13</t>
+          <t>1,03305/18</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -541,7 +541,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>51,02005/13</t>
+          <t>51,75005/18</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1,95605/13</t>
+          <t>2,06105/18</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -603,7 +603,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4,28505/13</t>
+          <t>4,29505/18</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -634,7 +634,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>3,54105/13</t>
+          <t>3,64905/18</t>
         </is>
       </c>
       <c r="E7" t="n">
@@ -665,7 +665,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1,75805/13</t>
+          <t>1,71205/18</t>
         </is>
       </c>
       <c r="E8" t="n">
@@ -696,7 +696,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3,08005/13</t>
+          <t>3,09505/18</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -727,7 +727,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5,22005/13</t>
+          <t>5,99005/18</t>
         </is>
       </c>
       <c r="E10" t="n">
@@ -758,7 +758,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3,85005/13</t>
+          <t>3,83505/18</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -789,7 +789,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5,04005/13</t>
+          <t>5,13705/18</t>
         </is>
       </c>
       <c r="E12" t="n">
@@ -820,7 +820,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>1,24905/13</t>
+          <t>1,21905/18</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -851,7 +851,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17,01005/13</t>
+          <t>17,89505/18</t>
         </is>
       </c>
       <c r="E14" t="n">
@@ -882,7 +882,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>1,847.505/13</t>
+          <t>1,851.505/18</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -913,7 +913,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1,96705/13</t>
+          <t>1,99705/18</t>
         </is>
       </c>
       <c r="E16" t="n">
@@ -944,7 +944,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1,98705/13</t>
+          <t>1,97705/18</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -975,7 +975,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>58405/13</t>
+          <t>58505/18</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>1,50205/13</t>
+          <t>1,45505/18</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>45105/13</t>
+          <t>43605/18</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1068,7 +1068,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2,710.505/13</t>
+          <t>2,69005/18</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>1,81805/13</t>
+          <t>1,835.505/18</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>4,05805/13</t>
+          <t>3,88505/18</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>1,34505/13</t>
+          <t>1,34505/18</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1192,7 +1192,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>1,14005/13</t>
+          <t>1,16205/18</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1223,7 +1223,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>3,26005/13</t>
+          <t>3,37005/18</t>
         </is>
       </c>
       <c r="E26" t="n">
@@ -1254,7 +1254,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>70705/13</t>
+          <t>67405/18</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1285,7 +1285,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>1,54105/13</t>
+          <t>1,50905/18</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1316,7 +1316,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>5,30005/13</t>
+          <t>5,00005/18</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1347,7 +1347,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>68205/13</t>
+          <t>69705/18</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -1378,7 +1378,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>1,32405/13</t>
+          <t>1,368.505/18</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1409,7 +1409,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>56,99005/13</t>
+          <t>59,70005/18</t>
         </is>
       </c>
       <c r="E32" t="n">
@@ -1440,7 +1440,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>46805/13</t>
+          <t>45905/18</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>1,04305/13</t>
+          <t>1,13005/18</t>
         </is>
       </c>
       <c r="E34" t="n">
@@ -1502,7 +1502,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>23805/13</t>
+          <t>24005/18</t>
         </is>
       </c>
       <c r="E35" t="n">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>36505/13</t>
+          <t>35905/18</t>
         </is>
       </c>
       <c r="E36" t="n">
@@ -1564,7 +1564,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>1,78705/13</t>
+          <t>2,24205/18</t>
         </is>
       </c>
       <c r="E37" t="n">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>5,57005/13</t>
+          <t>5,42005/18</t>
         </is>
       </c>
       <c r="E38" t="n">
@@ -1626,7 +1626,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>1,39805/13</t>
+          <t>1,37105/18</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>5205/13</t>
+          <t>5105/18</t>
         </is>
       </c>
       <c r="E40" t="n">
@@ -1688,7 +1688,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>6,07005/13</t>
+          <t>6,03005/18</t>
         </is>
       </c>
       <c r="E41" t="n">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>14605/13</t>
+          <t>14505/18</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -1750,7 +1750,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>3,30205/13</t>
+          <t>3,32505/18</t>
         </is>
       </c>
       <c r="E43" t="n">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>4,11505/13</t>
+          <t>4,07005/18</t>
         </is>
       </c>
       <c r="E44" t="n">
@@ -1812,7 +1812,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>5,07105/13</t>
+          <t>5,02605/18</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>25505/13</t>
+          <t>24005/18</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -1874,7 +1874,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>41,95005/13</t>
+          <t>41,45005/18</t>
         </is>
       </c>
       <c r="E47" t="n">
@@ -1905,7 +1905,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>37405/13</t>
+          <t>38005/18</t>
         </is>
       </c>
       <c r="E48" t="n">
@@ -1936,7 +1936,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>4,51005/13</t>
+          <t>4,54505/18</t>
         </is>
       </c>
       <c r="E49" t="n">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>19,83005/13</t>
+          <t>20,17005/18</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>1,99605/13</t>
+          <t>1,98605/18</t>
         </is>
       </c>
       <c r="E51" t="n">
